--- a/Timesheet_September_2024.xlsx
+++ b/Timesheet_September_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="35">
   <si>
     <t>ALTEZZASYS SYSTEMS PRIVATE LTD</t>
   </si>
@@ -116,6 +116,9 @@
   </si>
   <si>
     <t xml:space="preserve">For the Month of September 2024 </t>
+  </si>
+  <si>
+    <t>Absent</t>
   </si>
 </sst>
 </file>
@@ -349,29 +352,41 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="15" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="15" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="15" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -380,18 +395,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -700,8 +703,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -716,138 +719,138 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="21">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="28" t="s">
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="22"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
       <c r="E4" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="22"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="19">
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="25">
         <v>45412</v>
       </c>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="22"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="22" t="s">
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="22"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18" t="s">
+      <c r="B7" s="19"/>
+      <c r="C7" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="18"/>
-      <c r="E7" s="22" t="s">
+      <c r="D7" s="19"/>
+      <c r="E7" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="22"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
       <c r="E8" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="22"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="24" t="s">
+      <c r="A9" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="24"/>
-      <c r="C9" s="24" t="s">
+      <c r="B9" s="27"/>
+      <c r="C9" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="24"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17">
+      <c r="B10" s="24"/>
+      <c r="C10" s="24">
         <v>2024</v>
       </c>
-      <c r="D10" s="17"/>
+      <c r="D10" s="24"/>
       <c r="E10" s="13"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -1052,75 +1055,387 @@
       <c r="H20" s="16"/>
     </row>
     <row r="21" spans="1:8" s="16" customFormat="1">
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
+      <c r="A21" s="4">
+        <v>45545</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="14"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="G21" s="16" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="22" spans="1:8" s="16" customFormat="1">
-      <c r="A22"/>
-      <c r="B22"/>
-      <c r="C22"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
+      <c r="A22" s="4">
+        <v>45546</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="14"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
       <c r="F22"/>
-      <c r="G22"/>
+      <c r="G22" s="16" t="s">
+        <v>34</v>
+      </c>
       <c r="H22"/>
     </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="4">
+        <v>45547</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="14"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="G23" s="16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="4">
+        <v>45548</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" s="15">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="E24" s="15">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="G24" s="16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="7">
+        <v>45549</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" s="10"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="7">
+        <v>45550</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" s="10"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+    </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="16"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
+      <c r="A27" s="4">
+        <v>45551</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" s="15">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="E27" s="15">
+        <v>0.77083333333333337</v>
+      </c>
       <c r="F27" s="16"/>
-      <c r="G27" s="16"/>
+      <c r="G27" s="16" t="s">
+        <v>30</v>
+      </c>
       <c r="H27" s="16"/>
     </row>
     <row r="28" spans="1:8" s="16" customFormat="1">
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
+      <c r="A28" s="4">
+        <v>45552</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" s="15">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="E28" s="15">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="G28" s="16" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="29" spans="1:8" s="16" customFormat="1">
-      <c r="A29"/>
-      <c r="B29"/>
-      <c r="C29"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
+      <c r="A29" s="4">
+        <v>45553</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" s="15">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="E29" s="15">
+        <v>0.77083333333333337</v>
+      </c>
       <c r="F29"/>
-      <c r="G29"/>
+      <c r="G29" s="16" t="s">
+        <v>30</v>
+      </c>
       <c r="H29"/>
     </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="4">
+        <v>45554</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" s="15">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="E30" s="15">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="G30" s="16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="4">
+        <v>45555</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" s="15">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="E31" s="15">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="G31" s="16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="7">
+        <v>45556</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C32" s="10"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="7">
+        <v>45557</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C33" s="10"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
+    </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="16"/>
-      <c r="B34" s="16"/>
-      <c r="C34" s="16"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
+      <c r="A34" s="4">
+        <v>45558</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C34" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D34" s="15">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="E34" s="15">
+        <v>0.77083333333333337</v>
+      </c>
       <c r="F34" s="16"/>
-      <c r="G34" s="16"/>
+      <c r="G34" s="16" t="s">
+        <v>30</v>
+      </c>
       <c r="H34" s="16"/>
     </row>
     <row r="35" spans="1:8" s="16" customFormat="1">
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
+      <c r="A35" s="4">
+        <v>45559</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D35" s="15">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="E35" s="15">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="G35" s="16" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="36" spans="1:8" s="16" customFormat="1">
-      <c r="A36"/>
-      <c r="B36"/>
-      <c r="C36"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
+      <c r="A36" s="4">
+        <v>45560</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C36" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D36" s="15">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="E36" s="15">
+        <v>0.77083333333333337</v>
+      </c>
       <c r="F36"/>
-      <c r="G36"/>
+      <c r="G36" s="16" t="s">
+        <v>30</v>
+      </c>
       <c r="H36"/>
     </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="4">
+        <v>45561</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C37" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D37" s="15">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="E37" s="15">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="G37" s="16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="4">
+        <v>45562</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C38" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D38" s="15">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="E38" s="15">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="G38" s="16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="7">
+        <v>45563</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C39" s="10"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10"/>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="7">
+        <v>45564</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C40" s="10"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10"/>
+    </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="16"/>
-      <c r="B41" s="16"/>
-      <c r="C41" s="16"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
+      <c r="A41" s="4">
+        <v>45565</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C41" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D41" s="15">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="E41" s="15">
+        <v>0.77083333333333337</v>
+      </c>
       <c r="F41" s="16"/>
-      <c r="G41" s="16"/>
+      <c r="G41" s="16" t="s">
+        <v>30</v>
+      </c>
       <c r="H41" s="16"/>
     </row>
     <row r="42" spans="1:8" s="16" customFormat="1">
@@ -1159,12 +1474,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="E4:H4"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="A5:D5"/>
@@ -1178,6 +1487,12 @@
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="E9:H9"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="E4:H4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
